--- a/Task 19/solution_3799.xlsx
+++ b/Task 19/solution_3799.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F83520-4FC2-4F49-880C-47AE672C9124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AE0050-9506-4D69-A5E3-2BF3B4171C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Петя</t>
   </si>
@@ -91,7 +91,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -103,6 +103,97 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,13 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -708,7 +802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>C16</f>
         <v>43</v>
@@ -726,7 +820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>C16+D16</f>
         <v>77</v>
@@ -744,7 +838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>C16</f>
         <v>43</v>
@@ -762,7 +856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>A8</f>
         <v>9</v>
@@ -788,7 +882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>C20</f>
         <v>9</v>
@@ -806,7 +900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E22">
         <f>C20+D20</f>
         <v>44</v>
@@ -824,7 +918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>C20</f>
         <v>9</v>
@@ -842,23 +936,1470 @@
         <v>53</v>
       </c>
     </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <f>A26+1</f>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f>B26</f>
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <f>C26+1</f>
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <f>D26</f>
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <f>E26+1</f>
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <f>F26</f>
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <f>MAX(G26:H26)*2+MIN(G26:H26)</f>
+        <v>78</v>
+      </c>
+      <c r="J26">
+        <f>G26+H26</f>
+        <v>45</v>
+      </c>
+      <c r="L26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>E26+F26</f>
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <f>E26</f>
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <f>F26+1</f>
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I41" si="4">MAX(G27:H27)*2+MIN(G27:H27)</f>
+        <v>79</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J41" si="5">G27+H27</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f>E26+F26</f>
+        <v>44</v>
+      </c>
+      <c r="H28">
+        <f>F26</f>
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f>E26</f>
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <f>F26+E26</f>
+        <v>44</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>C26</f>
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <f>F26+1</f>
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <f>E30+1</f>
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <f>F30</f>
+        <v>34</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>E30+F30</f>
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <f>E30</f>
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <f>F30+1</f>
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>E30+F30</f>
+        <v>44</v>
+      </c>
+      <c r="H32">
+        <f>F30</f>
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>E30</f>
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <f>F30+E30</f>
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>C26+D26</f>
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <f>D26</f>
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <f>E34+1</f>
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <f>F34</f>
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>E34+F34</f>
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <f>E34</f>
+        <v>43</v>
+      </c>
+      <c r="H35">
+        <f>F34+1</f>
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>E34+F34</f>
+        <v>76</v>
+      </c>
+      <c r="H36">
+        <f>F34</f>
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>E34</f>
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <f>F34+E34</f>
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f>C26</f>
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <f>D26+1</f>
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <f>E38+1</f>
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <f>F38</f>
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>E38+F38</f>
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <f>E38</f>
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <f>F38+1</f>
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f>E38+F38</f>
+        <v>44</v>
+      </c>
+      <c r="H40">
+        <f>F38</f>
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f>E38</f>
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <f>F38+E38</f>
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>A26</f>
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <f>B26+1</f>
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <f>C42+1</f>
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <f>D42</f>
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <f>E42+1</f>
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <f>F42</f>
+        <v>34</v>
+      </c>
+      <c r="I42">
+        <f>MAX(G42:H42)*2+MIN(G42:H42)</f>
+        <v>79</v>
+      </c>
+      <c r="J42">
+        <f>G42+H42</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>E42+F42</f>
+        <v>44</v>
+      </c>
+      <c r="G43">
+        <f>E42</f>
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <f>F42+1</f>
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I57" si="6">MAX(G43:H43)*2+MIN(G43:H43)</f>
+        <v>80</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J57" si="7">G43+H43</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>E42+F42</f>
+        <v>44</v>
+      </c>
+      <c r="H44">
+        <f>F42</f>
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f>E42</f>
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <f>F42+E42</f>
+        <v>44</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>C42</f>
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <f>F42+1</f>
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <f>E46+1</f>
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <f>F46</f>
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>E46+F46</f>
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <f>E46</f>
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <f>F46+1</f>
+        <v>36</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f>E46+F46</f>
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <f>F46</f>
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f>E46</f>
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <f>F46+E46</f>
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f>C42+D42</f>
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <f>D42</f>
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <f>E50+1</f>
+        <v>44</v>
+      </c>
+      <c r="H50">
+        <f>F50</f>
+        <v>34</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>E50+F50</f>
+        <v>77</v>
+      </c>
+      <c r="G51">
+        <f>E50</f>
+        <v>43</v>
+      </c>
+      <c r="H51">
+        <f>F50+1</f>
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f>E50+F50</f>
+        <v>77</v>
+      </c>
+      <c r="H52">
+        <f>F50</f>
+        <v>34</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f>E50</f>
+        <v>43</v>
+      </c>
+      <c r="H53">
+        <f>F50+E50</f>
+        <v>77</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f>C42</f>
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <f>D42+1</f>
+        <v>35</v>
+      </c>
+      <c r="G54">
+        <f>E54+1</f>
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <f>F54</f>
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>E54+F54</f>
+        <v>44</v>
+      </c>
+      <c r="G55">
+        <f>E54</f>
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <f>F54+1</f>
+        <v>36</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f>E54+F54</f>
+        <v>44</v>
+      </c>
+      <c r="H56">
+        <f>F54</f>
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f>E54</f>
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <f>F54+E54</f>
+        <v>44</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f>A26+B26</f>
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <f>B26</f>
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <f>C58+1</f>
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <f>D58</f>
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <f>E58+1</f>
+        <v>44</v>
+      </c>
+      <c r="H58">
+        <f>F58</f>
+        <v>33</v>
+      </c>
+      <c r="I58">
+        <f>MAX(G58:H58)*2+MIN(G58:H58)</f>
+        <v>121</v>
+      </c>
+      <c r="J58">
+        <f>G58+H58</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f>E58+F58</f>
+        <v>76</v>
+      </c>
+      <c r="G59">
+        <f>E58</f>
+        <v>43</v>
+      </c>
+      <c r="H59">
+        <f>F58+1</f>
+        <v>34</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:I73" si="8">MAX(G59:H59)*2+MIN(G59:H59)</f>
+        <v>120</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:J73" si="9">G59+H59</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f>E58+F58</f>
+        <v>76</v>
+      </c>
+      <c r="H60">
+        <f>F58</f>
+        <v>33</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f>E58</f>
+        <v>43</v>
+      </c>
+      <c r="H61">
+        <f>F58+E58</f>
+        <v>76</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f>C58</f>
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <f>F58+1</f>
+        <v>34</v>
+      </c>
+      <c r="G62">
+        <f>E62+1</f>
+        <v>43</v>
+      </c>
+      <c r="H62">
+        <f>F62</f>
+        <v>34</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>E62+F62</f>
+        <v>76</v>
+      </c>
+      <c r="G63">
+        <f>E62</f>
+        <v>42</v>
+      </c>
+      <c r="H63">
+        <f>F62+1</f>
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f>E62+F62</f>
+        <v>76</v>
+      </c>
+      <c r="H64">
+        <f>F62</f>
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f>E62</f>
+        <v>42</v>
+      </c>
+      <c r="H65">
+        <f>F62+E62</f>
+        <v>76</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f>C58+D58</f>
+        <v>75</v>
+      </c>
+      <c r="F66">
+        <f>D58</f>
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <f>E66+1</f>
+        <v>76</v>
+      </c>
+      <c r="H66">
+        <f>F66</f>
+        <v>33</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>E66+F66</f>
+        <v>108</v>
+      </c>
+      <c r="G67">
+        <f>E66</f>
+        <v>75</v>
+      </c>
+      <c r="H67">
+        <f>F66+1</f>
+        <v>34</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f>E66+F66</f>
+        <v>108</v>
+      </c>
+      <c r="H68">
+        <f>F66</f>
+        <v>33</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f>E66</f>
+        <v>75</v>
+      </c>
+      <c r="H69">
+        <f>F66+E66</f>
+        <v>108</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>291</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f>C58</f>
+        <v>42</v>
+      </c>
+      <c r="F70">
+        <f>D58+1</f>
+        <v>34</v>
+      </c>
+      <c r="G70">
+        <f>E70+1</f>
+        <v>43</v>
+      </c>
+      <c r="H70">
+        <f>F70</f>
+        <v>34</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>E70+F70</f>
+        <v>76</v>
+      </c>
+      <c r="G71">
+        <f>E70</f>
+        <v>42</v>
+      </c>
+      <c r="H71">
+        <f>F70+1</f>
+        <v>35</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f>E70+F70</f>
+        <v>76</v>
+      </c>
+      <c r="H72">
+        <f>F70</f>
+        <v>34</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f>E70</f>
+        <v>42</v>
+      </c>
+      <c r="H73">
+        <f>F70+E70</f>
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>A26</f>
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <f>B26+A26</f>
+        <v>42</v>
+      </c>
+      <c r="E74">
+        <f>C74+1</f>
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <f>D74</f>
+        <v>42</v>
+      </c>
+      <c r="G74">
+        <f>E74+1</f>
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <f>F74</f>
+        <v>42</v>
+      </c>
+      <c r="I74">
+        <f>MAX(G74:H74)*2+MIN(G74:H74)</f>
+        <v>95</v>
+      </c>
+      <c r="J74">
+        <f>G74+H74</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f>E74+F74</f>
+        <v>52</v>
+      </c>
+      <c r="G75">
+        <f>E74</f>
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <f>F74+1</f>
+        <v>43</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I89" si="10">MAX(G75:H75)*2+MIN(G75:H75)</f>
+        <v>96</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J89" si="11">G75+H75</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f>E74+F74</f>
+        <v>52</v>
+      </c>
+      <c r="H76">
+        <f>F74</f>
+        <v>42</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f>E74</f>
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <f>F74+E74</f>
+        <v>52</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f>C74</f>
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <f>F74+1</f>
+        <v>43</v>
+      </c>
+      <c r="G78">
+        <f>E78+1</f>
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <f>F78</f>
+        <v>43</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>E78+F78</f>
+        <v>52</v>
+      </c>
+      <c r="G79">
+        <f>E78</f>
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <f>F78+1</f>
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f>E78+F78</f>
+        <v>52</v>
+      </c>
+      <c r="H80">
+        <f>F78</f>
+        <v>43</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f>E78</f>
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <f>F78+E78</f>
+        <v>52</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f>C74+D74</f>
+        <v>51</v>
+      </c>
+      <c r="F82">
+        <f>D74</f>
+        <v>42</v>
+      </c>
+      <c r="G82">
+        <f>E82+1</f>
+        <v>52</v>
+      </c>
+      <c r="H82">
+        <f>F82</f>
+        <v>42</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f>E82+F82</f>
+        <v>93</v>
+      </c>
+      <c r="G83">
+        <f>E82</f>
+        <v>51</v>
+      </c>
+      <c r="H83">
+        <f>F82+1</f>
+        <v>43</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f>E82+F82</f>
+        <v>93</v>
+      </c>
+      <c r="H84">
+        <f>F82</f>
+        <v>42</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f>E82</f>
+        <v>51</v>
+      </c>
+      <c r="H85">
+        <f>F82+E82</f>
+        <v>93</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f>C74</f>
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <f>D74+1</f>
+        <v>43</v>
+      </c>
+      <c r="G86">
+        <f>E86+1</f>
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <f>F86</f>
+        <v>43</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f>E86+F86</f>
+        <v>52</v>
+      </c>
+      <c r="G87">
+        <f>E86</f>
+        <v>9</v>
+      </c>
+      <c r="H87">
+        <f>F86+1</f>
+        <v>44</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f>E86+F86</f>
+        <v>52</v>
+      </c>
+      <c r="H88">
+        <f>F86</f>
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f>E86</f>
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <f>F86+E86</f>
+        <v>52</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
       <formula>79</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G23">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>79</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThanOrEqual">
       <formula>79</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G23">
+  <conditionalFormatting sqref="I26:I41">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J41">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I57">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:J57">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:I73">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:J73">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I89">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:J89">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87 F83 F79 F75 F71 F67 F63 F59 F55 F51 F47 F43 F39 F35 F31 F27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>79</formula>
     </cfRule>
